--- a/Question_Set2/Role-specific skills/Performance Management.xlsx
+++ b/Question_Set2/Role-specific skills/Performance Management.xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'You are a retail store manager specializing in mattresses and want to set performance goals with your sales team for the upcoming quarter. You aim to motivate them with challenging yet attainable targets.What is an effective stretch goal to set with a sales team member?', 'ques_type': 2, 'options': ['Increase sales of foam mattresses by 10%. ', 'Increase the number of outbound phone calls made. ', 'Increase sales of foam mattresses by 75%. ', 'Increase the number of hours spent listening to sales podcasts. '], 'score': 'Increase sales of foam mattresses by 10%. '}, {'title': 'You are a human resources manager at a manufacturing company. You are working with a manager to evaluate the employee appraisal process for machine operators. The manager explains that the most important criterion for being a good machine operator is reliability. They want to base the majority of the performance appraisal on traits, such as the machine operator’s dependability. How would you respond to the manager?', 'ques_type': 2, 'options': ['Agree with the manager’s suggestion and develop a trait appraisal that allows managers to assess a machine operator’s dependability. ', "Develop a 10-factor forced choice appraisal method in which one factor is the machine operator's dependability.", 'Ask for behavioral examples of dependability to integrate into a behavioral appraisal.', 'Develop a forced distribution system in which the manager rank-orders employees based on their dependability traits. '], 'score': 'Ask for behavioral examples of dependability to integrate into a behavioral appraisal.'}, {'title': 'You are a team leader at a marketing agency. One of your team members is responsible for creating social media content. Recently, you’ve noticed that they often seem distracted during team meetings, and the quality of their work has declined. Their social media posts are creative, but they often contain inaccuracies. You suspect that they are not applying the team’s fact-checking procedures.  How should you approach giving feedback to this team member?', 'ques_type': 2, 'options': ['Ask the full team to assess this team member’s most recent social media posts during a team meeting, using it as a learning activity for all. ', 'Provide general feedback to the whole team about the need to be engaged in team meetings and to use the fact-checking procedures. ', 'Privately ask this team member about the performance issues, inquiring about why they have seemed so distracted recently. ', 'Privately explain the performance issues and ask them to start documenting their fact-checking procedures.'], 'score': 'Privately explain the performance issues and ask them to start documenting their fact-checking procedures.'}, {'title': 'You are a manager at a software development company. In a recent employee opinion survey, employees complained that their annual appraisals did not reflect their overall performance and focused too much on their final quarter productivity. Which of the following steps could you take to avoid recency bias in this year’s review?', 'ques_type': 2, 'options': ['Meet with employees one-on-one to discuss their performance in the final quarter, seeking ways to improve for the next quarter. ', 'Meet with other managers to calibrate performance appraisal ratings, ensuring that your ratings align with those of other managers. ', 'Assess the performance appraisal ratings across your team for potential bias, identifying differences based on characteristics, such as gender.', 'Maintain a log of each employee’s key contributions and performance, updating it throughout each quarter. '], 'score': 'Maintain a log of each employee’s key contributions and performance, updating it throughout each quarter. '}]</t>
+    <t>questions = [
+    {
+        "title": "You are a retail store manager specializing in mattresses and want to set performance goals with your sales team for the upcoming quarter. You aim to motivate them with challenging yet attainable targets.What is an effective stretch goal to set with a sales team member?",
+        "ques_type": 2,
+        "options": [
+            "Increase sales of foam mattresses by 10%. ",
+            "Increase the number of outbound phone calls made. ",
+            "Increase sales of foam mattresses by 75%. ",
+            "Increase the number of hours spent listening to sales podcasts. "
+        ],
+        "score": "Increase sales of foam mattresses by 10%."
+    },
+    {
+        "title": "You are a human resources manager at a manufacturing company. You are working with a manager to evaluate the employee appraisal process for machine operators. The manager explains that the most important criterion for being a good machine operator is reliability. They want to base the majority of the performance appraisal on traits, such as the machine operator\u2019s dependability. How would you respond to the manager?",
+        "ques_type": 2,
+        "options": [
+            "Agree with the manager\u2019s suggestion and develop a trait appraisal that allows managers to assess a machine operator\u2019s dependability. ",
+            "Develop a 10-factor forced choice appraisal method in which one factor is the machine operator's dependability.",
+            "Ask for behavioral examples of dependability to integrate into a behavioral appraisal.",
+            "Develop a forced distribution system in which the manager rank-orders employees based on their dependability traits. "
+        ],
+        "score": "Ask for behavioral examples of dependability to integrate into a behavioral appraisal."
+    },
+    {
+        "title": "You are a team leader at a marketing agency. One of your team members is responsible for creating social media content. Recently, you\u2019ve noticed that they often seem distracted during team meetings, and the quality of their work has declined. Their social media posts are creative, but they often contain inaccuracies. You suspect that they are not applying the team\u2019s fact-checking procedures.  How should you approach giving feedback to this team member?",
+        "ques_type": 2,
+        "options": [
+            "Ask the full team to assess this team member\u2019s most recent social media posts during a team meeting, using it as a learning activity for all. ",
+            "Provide general feedback to the whole team about the need to be engaged in team meetings and to use the fact-checking procedures. ",
+            "Privately ask this team member about the performance issues, inquiring about why they have seemed so distracted recently. ",
+            "Privately explain the performance issues and ask them to start documenting their fact-checking procedures."
+        ],
+        "score": "Privately explain the performance issues and ask them to start documenting their fact-checking procedures."
+    },
+    {
+        "title": "You are a manager at a software development company. In a recent employee opinion survey, employees complained that their annual appraisals did not reflect their overall performance and focused too much on their final quarter productivity. Which of the following steps could you take to avoid recency bias in this year\u2019s review?",
+        "ques_type": 2,
+        "options": [
+            "Meet with employees one-on-one to discuss their performance in the final quarter, seeking ways to improve for the next quarter. ",
+            "Meet with other managers to calibrate performance appraisal ratings, ensuring that your ratings align with those of other managers. ",
+            "Assess the performance appraisal ratings across your team for potential bias, identifying differences based on characteristics, such as gender.",
+            "Maintain a log of each employee\u2019s key contributions and performance, updating it throughout each quarter. "
+        ],
+        "score": "Maintain a log of each employee\u2019s key contributions and performance, updating it throughout each quarter."
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
